--- a/test-event.xlsx
+++ b/test-event.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piyus\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piyus\OneDrive\Desktop\Codelab\Dev\dig-cert-nitrr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EEEFA05-3630-4905-A1F3-9F0949D95A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAFB020-18B4-4550-A893-FD11B56B5461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{F0AF34AA-CFED-4E52-B9A5-EA0CF80CC1E6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
@@ -55,16 +55,33 @@
   </si>
   <si>
     <t>xyz</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>thisissahupiyush@gmail.com</t>
+  </si>
+  <si>
+    <t>piyush.at.googl@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,13 +104,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -107,10 +127,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,15 +426,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98659416-CEF2-4FA9-972C-6226E3B15EAB}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,8 +444,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -439,8 +458,11 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -450,8 +472,15 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{DA2BBCB9-858A-46A7-9D69-EFB37E1CE1DF}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{9310C8F8-77D4-43E1-A43B-E2DC6D98EF73}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>